--- a/ExcelOps/akhil.xlsx
+++ b/ExcelOps/akhil.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="1" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId3" sheetId="1"/>
-    <sheet name="sheet2" r:id="rId4" sheetId="2"/>
+    <sheet name="sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="sheet5" r:id="rId7" sheetId="4"/>
+    <sheet name="sheet6" r:id="rId8" sheetId="5"/>
+    <sheet name="sheet7" r:id="rId9" sheetId="6"/>
+    <sheet name="sheet8" r:id="rId10" sheetId="7"/>
+    <sheet name="sheet4" r:id="rId11" sheetId="8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="15">
   <si>
     <t>rollno</t>
   </si>
@@ -28,28 +36,64 @@
   </si>
   <si>
     <t>marks</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>akhil</t>
+  </si>
+  <si>
+    <t>varma</t>
+  </si>
+  <si>
+    <t>akhi</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,49 +106,1204 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
